--- a/TrainingSet.xlsx
+++ b/TrainingSet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Erik\Downloads\all\Code\SmiteSite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Erik\Downloads\b;\DS\SmiteSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553ADD94-E224-4C18-A97F-EFFB784D9E0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0F220-BD0B-45AB-A0C0-84FF62774C5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="1080" windowWidth="24495" windowHeight="13140" xr2:uid="{FA6FE912-4576-4140-B69C-9BECECFBBE00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA6FE912-4576-4140-B69C-9BECECFBBE00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,6 +70,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -93,18 +99,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,11 +425,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FDA0AE-64AE-49AA-AB31-3659D432EFDE}">
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:J385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="F243" sqref="F243"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -472,6 +479,9 @@
       <c r="G2" s="2">
         <v>2.8959999999999999</v>
       </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -495,6 +505,9 @@
       <c r="G3" s="2">
         <v>2.952</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -518,6 +531,9 @@
       <c r="G4" s="2">
         <v>3.0680000000000001</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -541,6 +557,9 @@
       <c r="G5" s="2">
         <v>4.2140000000000004</v>
       </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -564,6 +583,9 @@
       <c r="G6" s="2">
         <v>4.4359999999999999</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -587,6 +609,9 @@
       <c r="G7" s="2">
         <v>2.4009999999999998</v>
       </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -610,6 +635,9 @@
       <c r="G8" s="2">
         <v>3.8479999999999999</v>
       </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -633,6 +661,9 @@
       <c r="G9" s="2">
         <v>3.2480000000000002</v>
       </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -656,6 +687,9 @@
       <c r="G10" s="2">
         <v>3.1070000000000002</v>
       </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -679,6 +713,9 @@
       <c r="G11" s="2">
         <v>1.2729999999999999</v>
       </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -702,6 +739,9 @@
       <c r="G12" s="2">
         <v>2.9950000000000001</v>
       </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -725,6 +765,9 @@
       <c r="G13" s="2">
         <v>3.5830000000000002</v>
       </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -748,6 +791,9 @@
       <c r="G14" s="2">
         <v>3.78</v>
       </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -771,6 +817,9 @@
       <c r="G15" s="2">
         <v>5.4009999999999998</v>
       </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -794,8 +843,11 @@
       <c r="G16" s="2">
         <v>3.2770000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>943463589</v>
       </c>
@@ -817,8 +869,11 @@
       <c r="G17" s="2">
         <v>2.419</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>943463588</v>
       </c>
@@ -840,8 +895,11 @@
       <c r="G18" s="2">
         <v>8.1229999999999993</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>943463587</v>
       </c>
@@ -863,8 +921,11 @@
       <c r="G19" s="2">
         <v>3.0880000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>943463586</v>
       </c>
@@ -886,8 +947,11 @@
       <c r="G20" s="2">
         <v>3.5459999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>943463584</v>
       </c>
@@ -909,8 +973,11 @@
       <c r="G21" s="2">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>943463583</v>
       </c>
@@ -932,8 +999,11 @@
       <c r="G22" s="2">
         <v>4.4109999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>943463582</v>
       </c>
@@ -955,8 +1025,11 @@
       <c r="G23" s="2">
         <v>6.2050000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>943463581</v>
       </c>
@@ -978,8 +1051,11 @@
       <c r="G24" s="2">
         <v>3.82</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>943463580</v>
       </c>
@@ -1001,8 +1077,11 @@
       <c r="G25" s="2">
         <v>2.6850000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>943463579</v>
       </c>
@@ -1024,8 +1103,11 @@
       <c r="G26" s="2">
         <v>2.9329999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>943463578</v>
       </c>
@@ -1047,8 +1129,11 @@
       <c r="G27" s="2">
         <v>3.4359999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>943463577</v>
       </c>
@@ -1070,8 +1155,11 @@
       <c r="G28" s="2">
         <v>4.55</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>943463576</v>
       </c>
@@ -1093,8 +1181,11 @@
       <c r="G29" s="2">
         <v>3.3969999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>943463575</v>
       </c>
@@ -1116,8 +1207,11 @@
       <c r="G30" s="2">
         <v>3.1269999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>943463573</v>
       </c>
@@ -1139,8 +1233,11 @@
       <c r="G31" s="2">
         <v>2.6720000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>943463572</v>
       </c>
@@ -1162,8 +1259,11 @@
       <c r="G32" s="2">
         <v>6.5780000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>943463571</v>
       </c>
@@ -1185,8 +1285,11 @@
       <c r="G33" s="2">
         <v>7.4530000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>943463543</v>
       </c>
@@ -1208,8 +1311,11 @@
       <c r="G34" s="2">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>943463542</v>
       </c>
@@ -1231,8 +1337,11 @@
       <c r="G35" s="2">
         <v>3.089</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>943463541</v>
       </c>
@@ -1254,8 +1363,11 @@
       <c r="G36" s="2">
         <v>1.9930000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>943463540</v>
       </c>
@@ -1277,8 +1389,11 @@
       <c r="G37" s="2">
         <v>3.633</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>943463539</v>
       </c>
@@ -1300,8 +1415,11 @@
       <c r="G38" s="2">
         <v>3.1190000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>943463538</v>
       </c>
@@ -1323,8 +1441,11 @@
       <c r="G39" s="2">
         <v>2.0510000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>943463537</v>
       </c>
@@ -1346,8 +1467,11 @@
       <c r="G40" s="2">
         <v>2.6030000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>943463536</v>
       </c>
@@ -1369,8 +1493,11 @@
       <c r="G41" s="2">
         <v>2.9119999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>943463535</v>
       </c>
@@ -1392,8 +1519,11 @@
       <c r="G42" s="2">
         <v>3.0369999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>943463534</v>
       </c>
@@ -1415,8 +1545,11 @@
       <c r="G43" s="2">
         <v>3.2290000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>943463533</v>
       </c>
@@ -1438,8 +1571,11 @@
       <c r="G44" s="2">
         <v>3.2170000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>943463532</v>
       </c>
@@ -1461,8 +1597,11 @@
       <c r="G45" s="2">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>943463531</v>
       </c>
@@ -1484,8 +1623,11 @@
       <c r="G46" s="2">
         <v>2.641</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>943463530</v>
       </c>
@@ -1507,8 +1649,11 @@
       <c r="G47" s="2">
         <v>3.5790000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>943463529</v>
       </c>
@@ -1530,8 +1675,11 @@
       <c r="G48" s="2">
         <v>2.8330000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>943463178</v>
       </c>
@@ -1553,8 +1701,11 @@
       <c r="G49" s="2">
         <v>3.4409999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>943463177</v>
       </c>
@@ -1576,8 +1727,11 @@
       <c r="G50" s="2">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>943463176</v>
       </c>
@@ -1599,8 +1753,11 @@
       <c r="G51" s="2">
         <v>3.9239999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>943463172</v>
       </c>
@@ -1622,8 +1779,11 @@
       <c r="G52" s="2">
         <v>4.7450000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>943463171</v>
       </c>
@@ -1645,8 +1805,11 @@
       <c r="G53" s="2">
         <v>4.5960000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>943463169</v>
       </c>
@@ -1668,8 +1831,11 @@
       <c r="G54" s="2">
         <v>3.9569999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>943463168</v>
       </c>
@@ -1691,8 +1857,11 @@
       <c r="G55" s="2">
         <v>3.3820000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>943463167</v>
       </c>
@@ -1714,8 +1883,11 @@
       <c r="G56" s="2">
         <v>3.5249999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>943463166</v>
       </c>
@@ -1737,8 +1909,11 @@
       <c r="G57" s="2">
         <v>3.806</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>943463164</v>
       </c>
@@ -1760,8 +1935,11 @@
       <c r="G58" s="2">
         <v>3.4420000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>943463163</v>
       </c>
@@ -1783,8 +1961,11 @@
       <c r="G59" s="2">
         <v>4.5780000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>943463162</v>
       </c>
@@ -1806,8 +1987,11 @@
       <c r="G60" s="2">
         <v>4.6859999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>943463161</v>
       </c>
@@ -1829,8 +2013,11 @@
       <c r="G61" s="2">
         <v>2.5009999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>943463160</v>
       </c>
@@ -1852,8 +2039,11 @@
       <c r="G62" s="2">
         <v>3.2250000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>943463159</v>
       </c>
@@ -1875,8 +2065,11 @@
       <c r="G63" s="2">
         <v>5.0720000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>943463158</v>
       </c>
@@ -1898,8 +2091,11 @@
       <c r="G64" s="2">
         <v>3.5230000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>943463157</v>
       </c>
@@ -1921,8 +2117,11 @@
       <c r="G65" s="2">
         <v>5.306</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>943463155</v>
       </c>
@@ -1944,8 +2143,11 @@
       <c r="G66" s="2">
         <v>2.4809999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>943463154</v>
       </c>
@@ -1967,8 +2169,11 @@
       <c r="G67" s="2">
         <v>4.0599999999999996</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>943463153</v>
       </c>
@@ -1990,8 +2195,11 @@
       <c r="G68" s="2">
         <v>3.2040000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>943463151</v>
       </c>
@@ -2013,8 +2221,11 @@
       <c r="G69" s="2">
         <v>4.5720000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>943463150</v>
       </c>
@@ -2036,8 +2247,11 @@
       <c r="G70" s="2">
         <v>4.468</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>943463149</v>
       </c>
@@ -2059,8 +2273,11 @@
       <c r="G71" s="2">
         <v>4.6319999999999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>943463148</v>
       </c>
@@ -2082,8 +2299,11 @@
       <c r="G72" s="2">
         <v>3.8260000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>943463147</v>
       </c>
@@ -2105,8 +2325,11 @@
       <c r="G73" s="2">
         <v>5.7859999999999996</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>943463146</v>
       </c>
@@ -2128,8 +2351,11 @@
       <c r="G74" s="2">
         <v>6.6550000000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>943463145</v>
       </c>
@@ -2151,8 +2377,11 @@
       <c r="G75" s="2">
         <v>2.964</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>943463143</v>
       </c>
@@ -2174,8 +2403,11 @@
       <c r="G76" s="2">
         <v>4.0529999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>943463142</v>
       </c>
@@ -2197,8 +2429,11 @@
       <c r="G77" s="2">
         <v>3.4849999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>943463141</v>
       </c>
@@ -2220,8 +2455,11 @@
       <c r="G78" s="2">
         <v>3.903</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>943463139</v>
       </c>
@@ -2243,8 +2481,11 @@
       <c r="G79" s="2">
         <v>3.8180000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>943463138</v>
       </c>
@@ -2266,8 +2507,11 @@
       <c r="G80" s="2">
         <v>4.3440000000000003</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>943463137</v>
       </c>
@@ -2289,8 +2533,11 @@
       <c r="G81" s="2">
         <v>4.12</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>943463135</v>
       </c>
@@ -2312,8 +2559,11 @@
       <c r="G82" s="2">
         <v>6.4210000000000003</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>943463134</v>
       </c>
@@ -2335,8 +2585,11 @@
       <c r="G83" s="2">
         <v>4.6479999999999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>943463133</v>
       </c>
@@ -2358,8 +2611,11 @@
       <c r="G84" s="2">
         <v>5.8840000000000003</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>943463132</v>
       </c>
@@ -2381,8 +2637,11 @@
       <c r="G85" s="2">
         <v>2.5539999999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>943463131</v>
       </c>
@@ -2404,8 +2663,11 @@
       <c r="G86" s="2">
         <v>3.0720000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>943463130</v>
       </c>
@@ -2427,8 +2689,11 @@
       <c r="G87" s="2">
         <v>3.2930000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>943463129</v>
       </c>
@@ -2450,8 +2715,11 @@
       <c r="G88" s="2">
         <v>7.524</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>943463128</v>
       </c>
@@ -2473,8 +2741,11 @@
       <c r="G89" s="2">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>943463122</v>
       </c>
@@ -2496,8 +2767,11 @@
       <c r="G90" s="2">
         <v>2.9510000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>943463121</v>
       </c>
@@ -2519,8 +2793,11 @@
       <c r="G91" s="2">
         <v>2.915</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>943463120</v>
       </c>
@@ -2542,8 +2819,11 @@
       <c r="G92" s="2">
         <v>2.306</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>943463119</v>
       </c>
@@ -2565,8 +2845,11 @@
       <c r="G93" s="2">
         <v>3.0190000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>943463118</v>
       </c>
@@ -2588,8 +2871,11 @@
       <c r="G94" s="2">
         <v>4.1239999999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>943463117</v>
       </c>
@@ -2611,8 +2897,11 @@
       <c r="G95" s="2">
         <v>3.0830000000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>943462574</v>
       </c>
@@ -2634,8 +2923,11 @@
       <c r="G96" s="2">
         <v>5.5979999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>943462573</v>
       </c>
@@ -2657,8 +2949,11 @@
       <c r="G97" s="2">
         <v>4.9539999999999997</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>943462572</v>
       </c>
@@ -2680,8 +2975,11 @@
       <c r="G98" s="2">
         <v>4.0540000000000003</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>943462571</v>
       </c>
@@ -2703,8 +3001,11 @@
       <c r="G99" s="2">
         <v>3.468</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>943462570</v>
       </c>
@@ -2726,8 +3027,11 @@
       <c r="G100" s="2">
         <v>4.1559999999999997</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>943462567</v>
       </c>
@@ -2749,8 +3053,11 @@
       <c r="G101" s="2">
         <v>3.113</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>943462565</v>
       </c>
@@ -2772,8 +3079,11 @@
       <c r="G102" s="2">
         <v>2.9769999999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>943462563</v>
       </c>
@@ -2795,8 +3105,11 @@
       <c r="G103" s="2">
         <v>4.5220000000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>943462562</v>
       </c>
@@ -2818,8 +3131,11 @@
       <c r="G104" s="2">
         <v>4.3899999999999997</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>943462538</v>
       </c>
@@ -2841,8 +3157,11 @@
       <c r="G105" s="2">
         <v>3.4660000000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>943462536</v>
       </c>
@@ -2864,8 +3183,11 @@
       <c r="G106" s="2">
         <v>3.2389999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>943462531</v>
       </c>
@@ -2887,8 +3209,11 @@
       <c r="G107" s="2">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>943462529</v>
       </c>
@@ -2910,8 +3235,11 @@
       <c r="G108" s="2">
         <v>4.6769999999999996</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>943462528</v>
       </c>
@@ -2933,8 +3261,11 @@
       <c r="G109" s="2">
         <v>5.1509999999999998</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>943462527</v>
       </c>
@@ -2956,8 +3287,11 @@
       <c r="G110" s="2">
         <v>7.0650000000000004</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>943462523</v>
       </c>
@@ -2979,8 +3313,11 @@
       <c r="G111" s="2">
         <v>2.7349999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>943462521</v>
       </c>
@@ -3002,8 +3339,11 @@
       <c r="G112" s="2">
         <v>5.2770000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>943462520</v>
       </c>
@@ -3025,8 +3365,11 @@
       <c r="G113" s="2">
         <v>3.61</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>943462513</v>
       </c>
@@ -3048,8 +3391,11 @@
       <c r="G114" s="2">
         <v>3.6219999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>943462511</v>
       </c>
@@ -3071,8 +3417,11 @@
       <c r="G115" s="2">
         <v>3.1379999999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>943462508</v>
       </c>
@@ -3094,8 +3443,11 @@
       <c r="G116" s="2">
         <v>3.8570000000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>943462504</v>
       </c>
@@ -3117,8 +3469,11 @@
       <c r="G117" s="2">
         <v>2.8519999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>943462501</v>
       </c>
@@ -3140,8 +3495,11 @@
       <c r="G118" s="2">
         <v>5.7030000000000003</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>943462500</v>
       </c>
@@ -3163,8 +3521,11 @@
       <c r="G119" s="2">
         <v>4.8920000000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>943462069</v>
       </c>
@@ -3186,8 +3547,11 @@
       <c r="G120" s="2">
         <v>3.367</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>943462059</v>
       </c>
@@ -3209,8 +3573,11 @@
       <c r="G121" s="2">
         <v>3.931</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>943462055</v>
       </c>
@@ -3232,8 +3599,11 @@
       <c r="G122" s="2">
         <v>3.149</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>943462050</v>
       </c>
@@ -3255,8 +3625,11 @@
       <c r="G123" s="2">
         <v>3.4510000000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>943462043</v>
       </c>
@@ -3278,8 +3651,11 @@
       <c r="G124" s="2">
         <v>2.6320000000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>943481055</v>
       </c>
@@ -3301,8 +3677,11 @@
       <c r="G125" s="2">
         <v>3.1789999999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>943481054</v>
       </c>
@@ -3324,8 +3703,11 @@
       <c r="G126" s="2">
         <v>2.6779999999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>943481053</v>
       </c>
@@ -3347,8 +3729,11 @@
       <c r="G127" s="2">
         <v>4.4210000000000003</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>943481052</v>
       </c>
@@ -3370,8 +3755,11 @@
       <c r="G128" s="2">
         <v>3.871</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>943481051</v>
       </c>
@@ -3393,8 +3781,11 @@
       <c r="G129" s="2">
         <v>3.0670000000000002</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>943481050</v>
       </c>
@@ -3416,8 +3807,11 @@
       <c r="G130" s="2">
         <v>2.6480000000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>943481049</v>
       </c>
@@ -3439,8 +3833,11 @@
       <c r="G131" s="2">
         <v>4.1280000000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>943481048</v>
       </c>
@@ -3462,8 +3859,11 @@
       <c r="G132" s="2">
         <v>2.6040000000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>943481045</v>
       </c>
@@ -3485,8 +3885,11 @@
       <c r="G133" s="2">
         <v>2.944</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>943481044</v>
       </c>
@@ -3508,8 +3911,11 @@
       <c r="G134" s="2">
         <v>2.6379999999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>943481043</v>
       </c>
@@ -3531,8 +3937,11 @@
       <c r="G135" s="2">
         <v>3.1930000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>943481042</v>
       </c>
@@ -3554,8 +3963,11 @@
       <c r="G136" s="2">
         <v>4.9169999999999998</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>943481041</v>
       </c>
@@ -3577,8 +3989,11 @@
       <c r="G137" s="2">
         <v>2.3050000000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>943481040</v>
       </c>
@@ -3600,8 +4015,11 @@
       <c r="G138" s="2">
         <v>9.9160000000000004</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>943481039</v>
       </c>
@@ -3623,8 +4041,11 @@
       <c r="G139" s="2">
         <v>3.5059999999999998</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>943481038</v>
       </c>
@@ -3646,8 +4067,11 @@
       <c r="G140" s="2">
         <v>4.0389999999999997</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>943481036</v>
       </c>
@@ -3669,8 +4093,11 @@
       <c r="G141" s="2">
         <v>3.843</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>943481035</v>
       </c>
@@ -3692,8 +4119,11 @@
       <c r="G142" s="2">
         <v>2.504</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>943481034</v>
       </c>
@@ -3715,8 +4145,11 @@
       <c r="G143" s="2">
         <v>3.552</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>943480849</v>
       </c>
@@ -3738,8 +4171,11 @@
       <c r="G144" s="2">
         <v>2.8690000000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>943480848</v>
       </c>
@@ -3761,8 +4197,11 @@
       <c r="G145" s="2">
         <v>3.883</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>943480847</v>
       </c>
@@ -3784,8 +4223,11 @@
       <c r="G146" s="2">
         <v>5.9139999999999997</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>943480846</v>
       </c>
@@ -3807,8 +4249,11 @@
       <c r="G147" s="2">
         <v>2.6440000000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>943480844</v>
       </c>
@@ -3830,8 +4275,11 @@
       <c r="G148" s="2">
         <v>2.8109999999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>943480843</v>
       </c>
@@ -3853,8 +4301,11 @@
       <c r="G149" s="2">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>943480842</v>
       </c>
@@ -3876,8 +4327,11 @@
       <c r="G150" s="2">
         <v>4.7450000000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>943480840</v>
       </c>
@@ -3899,8 +4353,11 @@
       <c r="G151" s="2">
         <v>3.3980000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>943480839</v>
       </c>
@@ -3922,8 +4379,11 @@
       <c r="G152" s="2">
         <v>2.403</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>943480838</v>
       </c>
@@ -3945,8 +4405,11 @@
       <c r="G153" s="2">
         <v>3.7829999999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>943480837</v>
       </c>
@@ -3968,8 +4431,11 @@
       <c r="G154" s="2">
         <v>2.7810000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>943480836</v>
       </c>
@@ -3991,8 +4457,11 @@
       <c r="G155" s="2">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>943480835</v>
       </c>
@@ -4014,8 +4483,11 @@
       <c r="G156" s="2">
         <v>5.2190000000000003</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>943480834</v>
       </c>
@@ -4037,8 +4509,11 @@
       <c r="G157" s="2">
         <v>2.6909999999999998</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>943480501</v>
       </c>
@@ -4060,8 +4535,11 @@
       <c r="G158" s="2">
         <v>3.3340000000000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>943480500</v>
       </c>
@@ -4083,8 +4561,11 @@
       <c r="G159" s="2">
         <v>3.3610000000000002</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>943480499</v>
       </c>
@@ -4106,8 +4587,11 @@
       <c r="G160" s="2">
         <v>5.141</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>943480497</v>
       </c>
@@ -4129,8 +4613,11 @@
       <c r="G161" s="2">
         <v>3.4319999999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>943480496</v>
       </c>
@@ -4152,8 +4639,11 @@
       <c r="G162" s="2">
         <v>3.399</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>943480495</v>
       </c>
@@ -4175,8 +4665,11 @@
       <c r="G163" s="2">
         <v>1.857</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>943480494</v>
       </c>
@@ -4198,8 +4691,11 @@
       <c r="G164" s="2">
         <v>7.4489999999999998</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>943480493</v>
       </c>
@@ -4221,8 +4717,11 @@
       <c r="G165" s="2">
         <v>3.2290000000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>943480492</v>
       </c>
@@ -4244,8 +4743,11 @@
       <c r="G166" s="2">
         <v>3.5169999999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>943480491</v>
       </c>
@@ -4267,8 +4769,11 @@
       <c r="G167" s="2">
         <v>5.3819999999999997</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>943480490</v>
       </c>
@@ -4290,8 +4795,11 @@
       <c r="G168" s="2">
         <v>3.2360000000000002</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>943480489</v>
       </c>
@@ -4313,8 +4821,11 @@
       <c r="G169" s="2">
         <v>2.9220000000000002</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>943480488</v>
       </c>
@@ -4336,8 +4847,11 @@
       <c r="G170" s="2">
         <v>1.736</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>943480487</v>
       </c>
@@ -4359,8 +4873,11 @@
       <c r="G171" s="2">
         <v>2.5859999999999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>943480486</v>
       </c>
@@ -4382,8 +4899,11 @@
       <c r="G172" s="2">
         <v>3.3119999999999998</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>943480485</v>
       </c>
@@ -4405,8 +4925,11 @@
       <c r="G173" s="2">
         <v>5.2560000000000002</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>943480294</v>
       </c>
@@ -4428,8 +4951,11 @@
       <c r="G174" s="2">
         <v>3.8769999999999998</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>943480293</v>
       </c>
@@ -4451,8 +4977,11 @@
       <c r="G175" s="2">
         <v>2.4390000000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>943480291</v>
       </c>
@@ -4474,8 +5003,11 @@
       <c r="G176" s="2">
         <v>2.4689999999999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>943480290</v>
       </c>
@@ -4497,8 +5029,11 @@
       <c r="G177" s="2">
         <v>4.6719999999999997</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>943480289</v>
       </c>
@@ -4520,8 +5055,11 @@
       <c r="G178" s="2">
         <v>4.2350000000000003</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>943480288</v>
       </c>
@@ -4543,8 +5081,11 @@
       <c r="G179" s="2">
         <v>3.7170000000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>943480287</v>
       </c>
@@ -4566,8 +5107,11 @@
       <c r="G180" s="2">
         <v>3.9279999999999999</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>943480286</v>
       </c>
@@ -4589,8 +5133,11 @@
       <c r="G181" s="2">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>943480284</v>
       </c>
@@ -4612,8 +5159,11 @@
       <c r="G182" s="2">
         <v>5.109</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>943480283</v>
       </c>
@@ -4635,8 +5185,11 @@
       <c r="G183" s="2">
         <v>11.368</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>943480032</v>
       </c>
@@ -4658,8 +5211,11 @@
       <c r="G184" s="2">
         <v>3.2050000000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>943480031</v>
       </c>
@@ -4681,8 +5237,11 @@
       <c r="G185" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>943480027</v>
       </c>
@@ -4704,8 +5263,11 @@
       <c r="G186" s="2">
         <v>2.8940000000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>943481055</v>
       </c>
@@ -4727,8 +5289,11 @@
       <c r="G187" s="2">
         <v>3.1789999999999998</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>943481054</v>
       </c>
@@ -4750,8 +5315,11 @@
       <c r="G188" s="2">
         <v>2.6779999999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>943481053</v>
       </c>
@@ -4773,8 +5341,11 @@
       <c r="G189" s="2">
         <v>4.4210000000000003</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>943481052</v>
       </c>
@@ -4796,8 +5367,11 @@
       <c r="G190" s="2">
         <v>3.871</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>943481051</v>
       </c>
@@ -4819,8 +5393,11 @@
       <c r="G191" s="2">
         <v>3.0670000000000002</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>943481050</v>
       </c>
@@ -4842,8 +5419,11 @@
       <c r="G192" s="2">
         <v>2.6480000000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>943481049</v>
       </c>
@@ -4865,8 +5445,11 @@
       <c r="G193" s="2">
         <v>4.1280000000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>943481048</v>
       </c>
@@ -4888,8 +5471,11 @@
       <c r="G194" s="2">
         <v>2.6040000000000001</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>943481045</v>
       </c>
@@ -4911,8 +5497,11 @@
       <c r="G195" s="2">
         <v>2.944</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>943481044</v>
       </c>
@@ -4934,8 +5523,11 @@
       <c r="G196" s="2">
         <v>2.6379999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>943481043</v>
       </c>
@@ -4957,8 +5549,11 @@
       <c r="G197" s="2">
         <v>3.1930000000000001</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>943481042</v>
       </c>
@@ -4980,8 +5575,11 @@
       <c r="G198" s="2">
         <v>4.9169999999999998</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>943481041</v>
       </c>
@@ -5003,8 +5601,11 @@
       <c r="G199" s="2">
         <v>2.3050000000000002</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>943481040</v>
       </c>
@@ -5026,8 +5627,11 @@
       <c r="G200" s="2">
         <v>9.9160000000000004</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>943481039</v>
       </c>
@@ -5049,8 +5653,11 @@
       <c r="G201" s="2">
         <v>3.5059999999999998</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>943481038</v>
       </c>
@@ -5072,8 +5679,11 @@
       <c r="G202" s="2">
         <v>4.0389999999999997</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>943481036</v>
       </c>
@@ -5095,8 +5705,11 @@
       <c r="G203" s="2">
         <v>3.843</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>943481035</v>
       </c>
@@ -5118,8 +5731,11 @@
       <c r="G204" s="2">
         <v>2.504</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>943481034</v>
       </c>
@@ -5141,8 +5757,11 @@
       <c r="G205" s="2">
         <v>3.552</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>943480849</v>
       </c>
@@ -5164,8 +5783,11 @@
       <c r="G206" s="2">
         <v>2.8690000000000002</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>943480848</v>
       </c>
@@ -5187,8 +5809,11 @@
       <c r="G207" s="2">
         <v>3.883</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>943480847</v>
       </c>
@@ -5210,8 +5835,11 @@
       <c r="G208" s="2">
         <v>5.9139999999999997</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>943480846</v>
       </c>
@@ -5233,8 +5861,11 @@
       <c r="G209" s="2">
         <v>2.6440000000000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>943480844</v>
       </c>
@@ -5256,8 +5887,11 @@
       <c r="G210" s="2">
         <v>2.8109999999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>943480843</v>
       </c>
@@ -5279,8 +5913,11 @@
       <c r="G211" s="2">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>943480842</v>
       </c>
@@ -5302,8 +5939,11 @@
       <c r="G212" s="2">
         <v>4.7450000000000001</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>943480840</v>
       </c>
@@ -5325,8 +5965,11 @@
       <c r="G213" s="2">
         <v>3.3980000000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>943480839</v>
       </c>
@@ -5348,8 +5991,11 @@
       <c r="G214" s="2">
         <v>2.403</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>943480838</v>
       </c>
@@ -5371,8 +6017,11 @@
       <c r="G215" s="2">
         <v>3.7829999999999999</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>943480837</v>
       </c>
@@ -5394,8 +6043,11 @@
       <c r="G216" s="2">
         <v>2.7810000000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>943480836</v>
       </c>
@@ -5417,8 +6069,11 @@
       <c r="G217" s="2">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>943480835</v>
       </c>
@@ -5440,8 +6095,11 @@
       <c r="G218" s="2">
         <v>5.2190000000000003</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>943480834</v>
       </c>
@@ -5463,8 +6121,11 @@
       <c r="G219" s="2">
         <v>2.6909999999999998</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>943480501</v>
       </c>
@@ -5486,8 +6147,11 @@
       <c r="G220" s="2">
         <v>3.3340000000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>943480500</v>
       </c>
@@ -5509,8 +6173,11 @@
       <c r="G221" s="2">
         <v>3.3610000000000002</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>943480499</v>
       </c>
@@ -5532,8 +6199,11 @@
       <c r="G222" s="2">
         <v>5.141</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>943480497</v>
       </c>
@@ -5555,8 +6225,11 @@
       <c r="G223" s="2">
         <v>3.4319999999999999</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>943480496</v>
       </c>
@@ -5578,8 +6251,11 @@
       <c r="G224" s="2">
         <v>3.399</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>943480495</v>
       </c>
@@ -5601,8 +6277,11 @@
       <c r="G225" s="2">
         <v>1.857</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>943480494</v>
       </c>
@@ -5624,8 +6303,11 @@
       <c r="G226" s="2">
         <v>7.4489999999999998</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>943480493</v>
       </c>
@@ -5647,8 +6329,11 @@
       <c r="G227" s="2">
         <v>3.2290000000000001</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>943480492</v>
       </c>
@@ -5670,8 +6355,11 @@
       <c r="G228" s="2">
         <v>3.5169999999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>943480491</v>
       </c>
@@ -5693,8 +6381,11 @@
       <c r="G229" s="2">
         <v>5.3819999999999997</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>943480490</v>
       </c>
@@ -5716,8 +6407,11 @@
       <c r="G230" s="2">
         <v>3.2360000000000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>943480489</v>
       </c>
@@ -5739,8 +6433,11 @@
       <c r="G231" s="2">
         <v>2.9220000000000002</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>943480488</v>
       </c>
@@ -5762,8 +6459,11 @@
       <c r="G232" s="2">
         <v>1.736</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>943480487</v>
       </c>
@@ -5785,8 +6485,11 @@
       <c r="G233" s="2">
         <v>2.5859999999999999</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>943480486</v>
       </c>
@@ -5808,8 +6511,11 @@
       <c r="G234" s="2">
         <v>3.3119999999999998</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>943480485</v>
       </c>
@@ -5831,8 +6537,11 @@
       <c r="G235" s="2">
         <v>5.2560000000000002</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>943480294</v>
       </c>
@@ -5854,8 +6563,11 @@
       <c r="G236" s="2">
         <v>3.8769999999999998</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>943480293</v>
       </c>
@@ -5877,8 +6589,11 @@
       <c r="G237" s="2">
         <v>2.4390000000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>943480291</v>
       </c>
@@ -5900,8 +6615,11 @@
       <c r="G238" s="2">
         <v>2.4689999999999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>943480290</v>
       </c>
@@ -5923,8 +6641,11 @@
       <c r="G239" s="2">
         <v>4.6719999999999997</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>943480289</v>
       </c>
@@ -5946,8 +6667,11 @@
       <c r="G240" s="2">
         <v>4.2350000000000003</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>943480288</v>
       </c>
@@ -5969,8 +6693,11 @@
       <c r="G241" s="2">
         <v>3.7170000000000001</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>943480287</v>
       </c>
@@ -5992,8 +6719,11 @@
       <c r="G242" s="2">
         <v>3.9279999999999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>943480286</v>
       </c>
@@ -6015,8 +6745,11 @@
       <c r="G243" s="2">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>943480284</v>
       </c>
@@ -6038,8 +6771,11 @@
       <c r="G244" s="2">
         <v>5.109</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>943480283</v>
       </c>
@@ -6061,8 +6797,11 @@
       <c r="G245" s="2">
         <v>11.368</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>943480032</v>
       </c>
@@ -6084,8 +6823,11 @@
       <c r="G246" s="2">
         <v>3.2050000000000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>943480031</v>
       </c>
@@ -6107,8 +6849,11 @@
       <c r="G247" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>943480027</v>
       </c>
@@ -6130,8 +6875,11 @@
       <c r="G248" s="2">
         <v>2.8940000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>943489581</v>
       </c>
@@ -6153,8 +6901,11 @@
       <c r="G249" s="2">
         <v>3.0630000000000002</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>943489580</v>
       </c>
@@ -6176,8 +6927,11 @@
       <c r="G250" s="2">
         <v>6.5069999999999997</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>943489579</v>
       </c>
@@ -6199,8 +6953,11 @@
       <c r="G251" s="2">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>943489578</v>
       </c>
@@ -6222,8 +6979,11 @@
       <c r="G252" s="2">
         <v>2.3679999999999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>943489577</v>
       </c>
@@ -6245,8 +7005,11 @@
       <c r="G253" s="2">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>943489576</v>
       </c>
@@ -6268,8 +7031,11 @@
       <c r="G254" s="2">
         <v>2.3610000000000002</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>943489575</v>
       </c>
@@ -6291,8 +7057,11 @@
       <c r="G255" s="2">
         <v>2.8919999999999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>943489574</v>
       </c>
@@ -6314,8 +7083,11 @@
       <c r="G256" s="2">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>943489573</v>
       </c>
@@ -6337,8 +7109,11 @@
       <c r="G257" s="2">
         <v>3.222</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>943489572</v>
       </c>
@@ -6360,8 +7135,11 @@
       <c r="G258" s="2">
         <v>3.0019999999999998</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>943489571</v>
       </c>
@@ -6383,8 +7161,11 @@
       <c r="G259" s="2">
         <v>5.7910000000000004</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>943489570</v>
       </c>
@@ -6406,8 +7187,11 @@
       <c r="G260" s="2">
         <v>2.556</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>943489569</v>
       </c>
@@ -6429,8 +7213,11 @@
       <c r="G261" s="2">
         <v>5.484</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>943489568</v>
       </c>
@@ -6451,6 +7238,3208 @@
       </c>
       <c r="G262" s="2">
         <v>2.4119999999999999</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>943793589</v>
+      </c>
+      <c r="B263">
+        <v>7624</v>
+      </c>
+      <c r="C263">
+        <v>104</v>
+      </c>
+      <c r="D263">
+        <v>5.6970000000000001</v>
+      </c>
+      <c r="E263">
+        <v>3013</v>
+      </c>
+      <c r="F263">
+        <v>80</v>
+      </c>
+      <c r="G263">
+        <v>5.51</v>
+      </c>
+      <c r="H263">
+        <v>2</v>
+      </c>
+      <c r="J263" s="3"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>943793588</v>
+      </c>
+      <c r="B264">
+        <v>2222</v>
+      </c>
+      <c r="C264">
+        <v>93</v>
+      </c>
+      <c r="D264">
+        <v>2.66</v>
+      </c>
+      <c r="E264">
+        <v>1948</v>
+      </c>
+      <c r="F264">
+        <v>95</v>
+      </c>
+      <c r="G264">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="H264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>943793587</v>
+      </c>
+      <c r="B265">
+        <v>2890</v>
+      </c>
+      <c r="C265">
+        <v>118</v>
+      </c>
+      <c r="D265">
+        <v>4.6130000000000004</v>
+      </c>
+      <c r="E265">
+        <v>3608</v>
+      </c>
+      <c r="F265">
+        <v>115</v>
+      </c>
+      <c r="G265">
+        <v>3.7890000000000001</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>943793586</v>
+      </c>
+      <c r="B266">
+        <v>2493</v>
+      </c>
+      <c r="C266">
+        <v>171</v>
+      </c>
+      <c r="D266">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="E266">
+        <v>2735</v>
+      </c>
+      <c r="F266">
+        <v>337</v>
+      </c>
+      <c r="G266">
+        <v>3.532</v>
+      </c>
+      <c r="H266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>943793585</v>
+      </c>
+      <c r="B267">
+        <v>2911</v>
+      </c>
+      <c r="C267">
+        <v>11</v>
+      </c>
+      <c r="D267">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="E267">
+        <v>5223</v>
+      </c>
+      <c r="F267">
+        <v>225</v>
+      </c>
+      <c r="G267">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>943793584</v>
+      </c>
+      <c r="B268">
+        <v>1215</v>
+      </c>
+      <c r="C268">
+        <v>161</v>
+      </c>
+      <c r="D268">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="E268">
+        <v>2194</v>
+      </c>
+      <c r="F268">
+        <v>643</v>
+      </c>
+      <c r="G268">
+        <v>2.766</v>
+      </c>
+      <c r="H268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>943793583</v>
+      </c>
+      <c r="B269">
+        <v>2062</v>
+      </c>
+      <c r="C269">
+        <v>230</v>
+      </c>
+      <c r="D269">
+        <v>3.2759999999999998</v>
+      </c>
+      <c r="E269">
+        <v>650</v>
+      </c>
+      <c r="F269">
+        <v>8</v>
+      </c>
+      <c r="G269">
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>943793582</v>
+      </c>
+      <c r="B270">
+        <v>1229</v>
+      </c>
+      <c r="C270">
+        <v>144</v>
+      </c>
+      <c r="D270">
+        <v>2.782</v>
+      </c>
+      <c r="E270">
+        <v>2928</v>
+      </c>
+      <c r="F270">
+        <v>162</v>
+      </c>
+      <c r="G270">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="H270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>943793581</v>
+      </c>
+      <c r="B271">
+        <v>680</v>
+      </c>
+      <c r="C271">
+        <v>8</v>
+      </c>
+      <c r="D271">
+        <v>3.2389999999999999</v>
+      </c>
+      <c r="E271">
+        <v>4073</v>
+      </c>
+      <c r="F271">
+        <v>212</v>
+      </c>
+      <c r="G271">
+        <v>3.46</v>
+      </c>
+      <c r="H271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>943793580</v>
+      </c>
+      <c r="B272">
+        <v>2934</v>
+      </c>
+      <c r="C272">
+        <v>55</v>
+      </c>
+      <c r="D272">
+        <v>3.6190000000000002</v>
+      </c>
+      <c r="E272">
+        <v>2963</v>
+      </c>
+      <c r="F272">
+        <v>82</v>
+      </c>
+      <c r="G272">
+        <v>3.089</v>
+      </c>
+      <c r="H272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>943793579</v>
+      </c>
+      <c r="B273">
+        <v>1452</v>
+      </c>
+      <c r="C273">
+        <v>31</v>
+      </c>
+      <c r="D273">
+        <v>3.1760000000000002</v>
+      </c>
+      <c r="E273">
+        <v>1224</v>
+      </c>
+      <c r="F273">
+        <v>205</v>
+      </c>
+      <c r="G273">
+        <v>3.069</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>943793578</v>
+      </c>
+      <c r="B274">
+        <v>10482</v>
+      </c>
+      <c r="C274">
+        <v>228</v>
+      </c>
+      <c r="D274">
+        <v>4.984</v>
+      </c>
+      <c r="E274">
+        <v>10074</v>
+      </c>
+      <c r="F274">
+        <v>133</v>
+      </c>
+      <c r="G274">
+        <v>3.4089999999999998</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>943793577</v>
+      </c>
+      <c r="B275">
+        <v>16</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275">
+        <v>1.544</v>
+      </c>
+      <c r="E275">
+        <v>54</v>
+      </c>
+      <c r="F275">
+        <v>15</v>
+      </c>
+      <c r="G275">
+        <v>2.395</v>
+      </c>
+      <c r="H275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>943793576</v>
+      </c>
+      <c r="B276">
+        <v>759</v>
+      </c>
+      <c r="C276">
+        <v>26</v>
+      </c>
+      <c r="D276">
+        <v>2.8140000000000001</v>
+      </c>
+      <c r="E276">
+        <v>1619</v>
+      </c>
+      <c r="F276">
+        <v>74</v>
+      </c>
+      <c r="G276">
+        <v>3.363</v>
+      </c>
+      <c r="H276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>943793575</v>
+      </c>
+      <c r="B277">
+        <v>2674</v>
+      </c>
+      <c r="C277">
+        <v>74</v>
+      </c>
+      <c r="D277">
+        <v>4.3209999999999997</v>
+      </c>
+      <c r="E277">
+        <v>1773</v>
+      </c>
+      <c r="F277">
+        <v>46</v>
+      </c>
+      <c r="G277">
+        <v>3.3039999999999998</v>
+      </c>
+      <c r="H277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>943793574</v>
+      </c>
+      <c r="B278">
+        <v>5548</v>
+      </c>
+      <c r="C278">
+        <v>84</v>
+      </c>
+      <c r="D278">
+        <v>4.3840000000000003</v>
+      </c>
+      <c r="E278">
+        <v>3742</v>
+      </c>
+      <c r="F278">
+        <v>892</v>
+      </c>
+      <c r="G278">
+        <v>3.907</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>943793573</v>
+      </c>
+      <c r="B279">
+        <v>6019</v>
+      </c>
+      <c r="C279">
+        <v>600</v>
+      </c>
+      <c r="D279">
+        <v>3.153</v>
+      </c>
+      <c r="E279">
+        <v>4661</v>
+      </c>
+      <c r="F279">
+        <v>156</v>
+      </c>
+      <c r="G279">
+        <v>4.1660000000000004</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>943793572</v>
+      </c>
+      <c r="B280">
+        <v>5641</v>
+      </c>
+      <c r="C280">
+        <v>189</v>
+      </c>
+      <c r="D280">
+        <v>4.8419999999999996</v>
+      </c>
+      <c r="E280">
+        <v>3946</v>
+      </c>
+      <c r="F280">
+        <v>461</v>
+      </c>
+      <c r="G280">
+        <v>2.9009999999999998</v>
+      </c>
+      <c r="H280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>943793571</v>
+      </c>
+      <c r="B281">
+        <v>4511</v>
+      </c>
+      <c r="C281">
+        <v>49</v>
+      </c>
+      <c r="D281">
+        <v>3.569</v>
+      </c>
+      <c r="E281">
+        <v>6167</v>
+      </c>
+      <c r="F281">
+        <v>255</v>
+      </c>
+      <c r="G281">
+        <v>2.831</v>
+      </c>
+      <c r="H281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>943793570</v>
+      </c>
+      <c r="B282">
+        <v>1988</v>
+      </c>
+      <c r="C282">
+        <v>152</v>
+      </c>
+      <c r="D282">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="E282">
+        <v>143</v>
+      </c>
+      <c r="F282">
+        <v>19</v>
+      </c>
+      <c r="G282">
+        <v>2.72</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>943793569</v>
+      </c>
+      <c r="B283">
+        <v>227</v>
+      </c>
+      <c r="C283">
+        <v>28</v>
+      </c>
+      <c r="D283">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="E283">
+        <v>136</v>
+      </c>
+      <c r="F283">
+        <v>40</v>
+      </c>
+      <c r="G283">
+        <v>3.7069999999999999</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>943793568</v>
+      </c>
+      <c r="B284">
+        <v>1178</v>
+      </c>
+      <c r="C284">
+        <v>257</v>
+      </c>
+      <c r="D284">
+        <v>3.911</v>
+      </c>
+      <c r="E284">
+        <v>1341</v>
+      </c>
+      <c r="F284">
+        <v>54</v>
+      </c>
+      <c r="G284">
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>943793567</v>
+      </c>
+      <c r="B285">
+        <v>68</v>
+      </c>
+      <c r="C285">
+        <v>24</v>
+      </c>
+      <c r="D285">
+        <v>3.62</v>
+      </c>
+      <c r="E285">
+        <v>81</v>
+      </c>
+      <c r="F285">
+        <v>19</v>
+      </c>
+      <c r="G285">
+        <v>4.3780000000000001</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>943793566</v>
+      </c>
+      <c r="B286">
+        <v>3673</v>
+      </c>
+      <c r="C286">
+        <v>251</v>
+      </c>
+      <c r="D286">
+        <v>3.7210000000000001</v>
+      </c>
+      <c r="E286">
+        <v>5446</v>
+      </c>
+      <c r="F286">
+        <v>239</v>
+      </c>
+      <c r="G286">
+        <v>5.5659999999999998</v>
+      </c>
+      <c r="H286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>943793565</v>
+      </c>
+      <c r="B287">
+        <v>295</v>
+      </c>
+      <c r="C287">
+        <v>27</v>
+      </c>
+      <c r="D287">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="E287">
+        <v>95</v>
+      </c>
+      <c r="F287">
+        <v>41</v>
+      </c>
+      <c r="G287">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>943793564</v>
+      </c>
+      <c r="B288">
+        <v>1681</v>
+      </c>
+      <c r="C288">
+        <v>68</v>
+      </c>
+      <c r="D288">
+        <v>4.9109999999999996</v>
+      </c>
+      <c r="E288">
+        <v>3039</v>
+      </c>
+      <c r="F288">
+        <v>199</v>
+      </c>
+      <c r="G288">
+        <v>3.431</v>
+      </c>
+      <c r="H288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>943793563</v>
+      </c>
+      <c r="B289">
+        <v>135</v>
+      </c>
+      <c r="C289">
+        <v>4</v>
+      </c>
+      <c r="D289">
+        <v>9.4</v>
+      </c>
+      <c r="E289">
+        <v>664</v>
+      </c>
+      <c r="F289">
+        <v>7</v>
+      </c>
+      <c r="G289">
+        <v>5.0369999999999999</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>943793562</v>
+      </c>
+      <c r="B290">
+        <v>191</v>
+      </c>
+      <c r="C290">
+        <v>30</v>
+      </c>
+      <c r="D290">
+        <v>3.069</v>
+      </c>
+      <c r="E290">
+        <v>196</v>
+      </c>
+      <c r="F290">
+        <v>52</v>
+      </c>
+      <c r="G290">
+        <v>4.2039999999999997</v>
+      </c>
+      <c r="H290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>943793561</v>
+      </c>
+      <c r="B291">
+        <v>112</v>
+      </c>
+      <c r="C291">
+        <v>91</v>
+      </c>
+      <c r="D291">
+        <v>2.6429999999999998</v>
+      </c>
+      <c r="E291">
+        <v>134</v>
+      </c>
+      <c r="F291">
+        <v>41</v>
+      </c>
+      <c r="G291">
+        <v>2.5230000000000001</v>
+      </c>
+      <c r="H291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>943793560</v>
+      </c>
+      <c r="B292">
+        <v>2056</v>
+      </c>
+      <c r="C292">
+        <v>83</v>
+      </c>
+      <c r="D292">
+        <v>3.7010000000000001</v>
+      </c>
+      <c r="E292">
+        <v>2348</v>
+      </c>
+      <c r="F292">
+        <v>189</v>
+      </c>
+      <c r="G292">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>943793559</v>
+      </c>
+      <c r="B293">
+        <v>2318</v>
+      </c>
+      <c r="C293">
+        <v>66</v>
+      </c>
+      <c r="D293">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="E293">
+        <v>595</v>
+      </c>
+      <c r="F293">
+        <v>18</v>
+      </c>
+      <c r="G293">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="H293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>943793558</v>
+      </c>
+      <c r="B294">
+        <v>372</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+      <c r="D294">
+        <v>5.72</v>
+      </c>
+      <c r="E294">
+        <v>999</v>
+      </c>
+      <c r="F294">
+        <v>11</v>
+      </c>
+      <c r="G294">
+        <v>6.1230000000000002</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>943793557</v>
+      </c>
+      <c r="B295">
+        <v>9245</v>
+      </c>
+      <c r="C295">
+        <v>198</v>
+      </c>
+      <c r="D295">
+        <v>3.734</v>
+      </c>
+      <c r="E295">
+        <v>4024</v>
+      </c>
+      <c r="F295">
+        <v>276</v>
+      </c>
+      <c r="G295">
+        <v>4.194</v>
+      </c>
+      <c r="H295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>943793556</v>
+      </c>
+      <c r="B296">
+        <v>1291</v>
+      </c>
+      <c r="C296">
+        <v>31</v>
+      </c>
+      <c r="D296">
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="E296">
+        <v>521</v>
+      </c>
+      <c r="F296">
+        <v>27</v>
+      </c>
+      <c r="G296">
+        <v>5.13</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>943793555</v>
+      </c>
+      <c r="B297">
+        <v>1165</v>
+      </c>
+      <c r="C297">
+        <v>264</v>
+      </c>
+      <c r="D297">
+        <v>3.702</v>
+      </c>
+      <c r="E297">
+        <v>6457</v>
+      </c>
+      <c r="F297">
+        <v>199</v>
+      </c>
+      <c r="G297">
+        <v>2.7410000000000001</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>943793554</v>
+      </c>
+      <c r="B298">
+        <v>23</v>
+      </c>
+      <c r="C298">
+        <v>12</v>
+      </c>
+      <c r="D298">
+        <v>5.04</v>
+      </c>
+      <c r="E298">
+        <v>104</v>
+      </c>
+      <c r="F298">
+        <v>93</v>
+      </c>
+      <c r="G298">
+        <v>3.7309999999999999</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>943793553</v>
+      </c>
+      <c r="B299">
+        <v>173</v>
+      </c>
+      <c r="C299">
+        <v>32</v>
+      </c>
+      <c r="D299">
+        <v>4.7430000000000003</v>
+      </c>
+      <c r="E299">
+        <v>118</v>
+      </c>
+      <c r="F299">
+        <v>12</v>
+      </c>
+      <c r="G299">
+        <v>3.4159999999999999</v>
+      </c>
+      <c r="H299">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>943793552</v>
+      </c>
+      <c r="B300">
+        <v>68</v>
+      </c>
+      <c r="C300">
+        <v>41</v>
+      </c>
+      <c r="D300">
+        <v>2.0790000000000002</v>
+      </c>
+      <c r="E300">
+        <v>127</v>
+      </c>
+      <c r="F300">
+        <v>9</v>
+      </c>
+      <c r="G300">
+        <v>2.327</v>
+      </c>
+      <c r="H300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>943793551</v>
+      </c>
+      <c r="B301">
+        <v>1637</v>
+      </c>
+      <c r="C301">
+        <v>96</v>
+      </c>
+      <c r="D301">
+        <v>3.7090000000000001</v>
+      </c>
+      <c r="E301">
+        <v>7049</v>
+      </c>
+      <c r="F301">
+        <v>270</v>
+      </c>
+      <c r="G301">
+        <v>3.2989999999999999</v>
+      </c>
+      <c r="H301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>943793527</v>
+      </c>
+      <c r="B302">
+        <v>3044</v>
+      </c>
+      <c r="C302">
+        <v>37</v>
+      </c>
+      <c r="D302">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="E302">
+        <v>1626</v>
+      </c>
+      <c r="F302">
+        <v>62</v>
+      </c>
+      <c r="G302">
+        <v>3.8540000000000001</v>
+      </c>
+      <c r="H302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>943793526</v>
+      </c>
+      <c r="B303">
+        <v>7656</v>
+      </c>
+      <c r="C303">
+        <v>304</v>
+      </c>
+      <c r="D303">
+        <v>3.2919999999999998</v>
+      </c>
+      <c r="E303">
+        <v>2287</v>
+      </c>
+      <c r="F303">
+        <v>274</v>
+      </c>
+      <c r="G303">
+        <v>3.6629999999999998</v>
+      </c>
+      <c r="H303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>943793525</v>
+      </c>
+      <c r="B304">
+        <v>1545</v>
+      </c>
+      <c r="C304">
+        <v>61</v>
+      </c>
+      <c r="D304">
+        <v>7.2789999999999999</v>
+      </c>
+      <c r="E304">
+        <v>1260</v>
+      </c>
+      <c r="F304">
+        <v>73</v>
+      </c>
+      <c r="G304">
+        <v>3.637</v>
+      </c>
+      <c r="H304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>943793523</v>
+      </c>
+      <c r="B305">
+        <v>3018</v>
+      </c>
+      <c r="C305">
+        <v>594</v>
+      </c>
+      <c r="D305">
+        <v>3.9</v>
+      </c>
+      <c r="E305">
+        <v>3516</v>
+      </c>
+      <c r="F305">
+        <v>166</v>
+      </c>
+      <c r="G305">
+        <v>2.7789999999999999</v>
+      </c>
+      <c r="H305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>943793522</v>
+      </c>
+      <c r="B306">
+        <v>234</v>
+      </c>
+      <c r="C306">
+        <v>83</v>
+      </c>
+      <c r="D306">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="E306">
+        <v>224</v>
+      </c>
+      <c r="F306">
+        <v>137</v>
+      </c>
+      <c r="G306">
+        <v>3.7959999999999998</v>
+      </c>
+      <c r="H306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>943793521</v>
+      </c>
+      <c r="B307">
+        <v>2001</v>
+      </c>
+      <c r="C307">
+        <v>59</v>
+      </c>
+      <c r="D307">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="E307">
+        <v>3672</v>
+      </c>
+      <c r="F307">
+        <v>587</v>
+      </c>
+      <c r="G307">
+        <v>2.722</v>
+      </c>
+      <c r="H307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>943793520</v>
+      </c>
+      <c r="B308">
+        <v>1000</v>
+      </c>
+      <c r="C308">
+        <v>39</v>
+      </c>
+      <c r="D308">
+        <v>5.24</v>
+      </c>
+      <c r="E308">
+        <v>1981</v>
+      </c>
+      <c r="F308">
+        <v>285</v>
+      </c>
+      <c r="G308">
+        <v>2.9630000000000001</v>
+      </c>
+      <c r="H308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>943793519</v>
+      </c>
+      <c r="B309">
+        <v>860</v>
+      </c>
+      <c r="C309">
+        <v>103</v>
+      </c>
+      <c r="D309">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="E309">
+        <v>1698</v>
+      </c>
+      <c r="F309">
+        <v>93</v>
+      </c>
+      <c r="G309">
+        <v>3.3690000000000002</v>
+      </c>
+      <c r="H309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>943793518</v>
+      </c>
+      <c r="B310">
+        <v>1067</v>
+      </c>
+      <c r="C310">
+        <v>130</v>
+      </c>
+      <c r="D310">
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="E310">
+        <v>3352</v>
+      </c>
+      <c r="F310">
+        <v>159</v>
+      </c>
+      <c r="G310">
+        <v>10.324999999999999</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>943793517</v>
+      </c>
+      <c r="B311">
+        <v>1294</v>
+      </c>
+      <c r="C311">
+        <v>76</v>
+      </c>
+      <c r="D311">
+        <v>2.69</v>
+      </c>
+      <c r="E311">
+        <v>1211</v>
+      </c>
+      <c r="F311">
+        <v>80</v>
+      </c>
+      <c r="G311">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>943793516</v>
+      </c>
+      <c r="B312">
+        <v>2486</v>
+      </c>
+      <c r="C312">
+        <v>81</v>
+      </c>
+      <c r="D312">
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="E312">
+        <v>2824</v>
+      </c>
+      <c r="F312">
+        <v>261</v>
+      </c>
+      <c r="G312">
+        <v>5.069</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>943793515</v>
+      </c>
+      <c r="B313">
+        <v>656</v>
+      </c>
+      <c r="C313">
+        <v>26</v>
+      </c>
+      <c r="D313">
+        <v>3.8860000000000001</v>
+      </c>
+      <c r="E313">
+        <v>599</v>
+      </c>
+      <c r="F313">
+        <v>36</v>
+      </c>
+      <c r="G313">
+        <v>4.6239999999999997</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>943793514</v>
+      </c>
+      <c r="B314">
+        <v>519</v>
+      </c>
+      <c r="C314">
+        <v>62</v>
+      </c>
+      <c r="D314">
+        <v>2.819</v>
+      </c>
+      <c r="E314">
+        <v>110</v>
+      </c>
+      <c r="F314">
+        <v>10</v>
+      </c>
+      <c r="G314">
+        <v>3.129</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>943793513</v>
+      </c>
+      <c r="B315">
+        <v>341</v>
+      </c>
+      <c r="C315">
+        <v>54</v>
+      </c>
+      <c r="D315">
+        <v>4.375</v>
+      </c>
+      <c r="E315">
+        <v>179</v>
+      </c>
+      <c r="F315">
+        <v>57</v>
+      </c>
+      <c r="G315">
+        <v>3.742</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>943793512</v>
+      </c>
+      <c r="B316">
+        <v>166</v>
+      </c>
+      <c r="C316">
+        <v>10</v>
+      </c>
+      <c r="D316">
+        <v>4.0919999999999996</v>
+      </c>
+      <c r="E316">
+        <v>249</v>
+      </c>
+      <c r="F316">
+        <v>51</v>
+      </c>
+      <c r="G316">
+        <v>3.7570000000000001</v>
+      </c>
+      <c r="H316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>943793511</v>
+      </c>
+      <c r="B317">
+        <v>65</v>
+      </c>
+      <c r="C317">
+        <v>5</v>
+      </c>
+      <c r="D317">
+        <v>3.262</v>
+      </c>
+      <c r="E317">
+        <v>56</v>
+      </c>
+      <c r="F317">
+        <v>3</v>
+      </c>
+      <c r="G317">
+        <v>5.65</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>943793510</v>
+      </c>
+      <c r="B318">
+        <v>1633</v>
+      </c>
+      <c r="C318">
+        <v>43</v>
+      </c>
+      <c r="D318">
+        <v>3.319</v>
+      </c>
+      <c r="E318">
+        <v>4462</v>
+      </c>
+      <c r="F318">
+        <v>153</v>
+      </c>
+      <c r="G318">
+        <v>3.3889999999999998</v>
+      </c>
+      <c r="H318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>943793509</v>
+      </c>
+      <c r="B319">
+        <v>244</v>
+      </c>
+      <c r="C319">
+        <v>113</v>
+      </c>
+      <c r="D319">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="E319">
+        <v>260</v>
+      </c>
+      <c r="F319">
+        <v>45</v>
+      </c>
+      <c r="G319">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="H319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>943793077</v>
+      </c>
+      <c r="B320">
+        <v>2668</v>
+      </c>
+      <c r="C320">
+        <v>99</v>
+      </c>
+      <c r="D320">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="E320">
+        <v>1102</v>
+      </c>
+      <c r="F320">
+        <v>19</v>
+      </c>
+      <c r="G320">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="H320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>943793076</v>
+      </c>
+      <c r="B321">
+        <v>1739</v>
+      </c>
+      <c r="C321">
+        <v>33</v>
+      </c>
+      <c r="D321">
+        <v>4.516</v>
+      </c>
+      <c r="E321">
+        <v>2909</v>
+      </c>
+      <c r="F321">
+        <v>433</v>
+      </c>
+      <c r="G321">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>943793075</v>
+      </c>
+      <c r="B322">
+        <v>4884</v>
+      </c>
+      <c r="C322">
+        <v>357</v>
+      </c>
+      <c r="D322">
+        <v>3.26</v>
+      </c>
+      <c r="E322">
+        <v>5158</v>
+      </c>
+      <c r="F322">
+        <v>157</v>
+      </c>
+      <c r="G322">
+        <v>4.702</v>
+      </c>
+      <c r="H322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>943793074</v>
+      </c>
+      <c r="B323">
+        <v>1612</v>
+      </c>
+      <c r="C323">
+        <v>84</v>
+      </c>
+      <c r="D323">
+        <v>3.9569999999999999</v>
+      </c>
+      <c r="E323">
+        <v>672</v>
+      </c>
+      <c r="F323">
+        <v>17</v>
+      </c>
+      <c r="G323">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>943793073</v>
+      </c>
+      <c r="B324">
+        <v>4259</v>
+      </c>
+      <c r="C324">
+        <v>90</v>
+      </c>
+      <c r="D324">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="E324">
+        <v>2928</v>
+      </c>
+      <c r="F324">
+        <v>32</v>
+      </c>
+      <c r="G324">
+        <v>2.6840000000000002</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>943793072</v>
+      </c>
+      <c r="B325">
+        <v>3607</v>
+      </c>
+      <c r="C325">
+        <v>329</v>
+      </c>
+      <c r="D325">
+        <v>4.1630000000000003</v>
+      </c>
+      <c r="E325">
+        <v>769</v>
+      </c>
+      <c r="F325">
+        <v>56</v>
+      </c>
+      <c r="G325">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>943793070</v>
+      </c>
+      <c r="B326">
+        <v>5221</v>
+      </c>
+      <c r="C326">
+        <v>115</v>
+      </c>
+      <c r="D326">
+        <v>2.714</v>
+      </c>
+      <c r="E326">
+        <v>1567</v>
+      </c>
+      <c r="F326">
+        <v>105</v>
+      </c>
+      <c r="G326">
+        <v>3.9489999999999998</v>
+      </c>
+      <c r="H326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>943793069</v>
+      </c>
+      <c r="B327">
+        <v>954</v>
+      </c>
+      <c r="C327">
+        <v>170</v>
+      </c>
+      <c r="D327">
+        <v>2.742</v>
+      </c>
+      <c r="E327">
+        <v>1224</v>
+      </c>
+      <c r="F327">
+        <v>71</v>
+      </c>
+      <c r="G327">
+        <v>2.496</v>
+      </c>
+      <c r="H327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>943793068</v>
+      </c>
+      <c r="B328">
+        <v>2337</v>
+      </c>
+      <c r="C328">
+        <v>247</v>
+      </c>
+      <c r="D328">
+        <v>4.0789999999999997</v>
+      </c>
+      <c r="E328">
+        <v>420</v>
+      </c>
+      <c r="F328">
+        <v>70</v>
+      </c>
+      <c r="G328">
+        <v>5.1449999999999996</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>943793067</v>
+      </c>
+      <c r="B329">
+        <v>2103</v>
+      </c>
+      <c r="C329">
+        <v>114</v>
+      </c>
+      <c r="D329">
+        <v>5.8079999999999998</v>
+      </c>
+      <c r="E329">
+        <v>2944</v>
+      </c>
+      <c r="F329">
+        <v>66</v>
+      </c>
+      <c r="G329">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>943793066</v>
+      </c>
+      <c r="B330">
+        <v>136</v>
+      </c>
+      <c r="C330">
+        <v>110</v>
+      </c>
+      <c r="D330">
+        <v>4.2690000000000001</v>
+      </c>
+      <c r="E330">
+        <v>74</v>
+      </c>
+      <c r="F330">
+        <v>66</v>
+      </c>
+      <c r="G330">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="H330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>943793065</v>
+      </c>
+      <c r="B331">
+        <v>93</v>
+      </c>
+      <c r="C331">
+        <v>32</v>
+      </c>
+      <c r="D331">
+        <v>3.2080000000000002</v>
+      </c>
+      <c r="E331">
+        <v>563</v>
+      </c>
+      <c r="F331">
+        <v>72</v>
+      </c>
+      <c r="G331">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="H331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>943793063</v>
+      </c>
+      <c r="B332">
+        <v>380</v>
+      </c>
+      <c r="C332">
+        <v>192</v>
+      </c>
+      <c r="D332">
+        <v>2.4039999999999999</v>
+      </c>
+      <c r="E332">
+        <v>132</v>
+      </c>
+      <c r="F332">
+        <v>41</v>
+      </c>
+      <c r="G332">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>943793062</v>
+      </c>
+      <c r="B333">
+        <v>689</v>
+      </c>
+      <c r="C333">
+        <v>19</v>
+      </c>
+      <c r="D333">
+        <v>2.5510000000000002</v>
+      </c>
+      <c r="E333">
+        <v>114</v>
+      </c>
+      <c r="F333">
+        <v>19</v>
+      </c>
+      <c r="G333">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>943793061</v>
+      </c>
+      <c r="B334">
+        <v>1901</v>
+      </c>
+      <c r="C334">
+        <v>133</v>
+      </c>
+      <c r="D334">
+        <v>2.9740000000000002</v>
+      </c>
+      <c r="E334">
+        <v>3087</v>
+      </c>
+      <c r="F334">
+        <v>71</v>
+      </c>
+      <c r="G334">
+        <v>2.302</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>943793060</v>
+      </c>
+      <c r="B335">
+        <v>2904</v>
+      </c>
+      <c r="C335">
+        <v>189</v>
+      </c>
+      <c r="D335">
+        <v>3.5739999999999998</v>
+      </c>
+      <c r="E335">
+        <v>8340</v>
+      </c>
+      <c r="F335">
+        <v>167</v>
+      </c>
+      <c r="G335">
+        <v>4.702</v>
+      </c>
+      <c r="H335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>943793059</v>
+      </c>
+      <c r="B336">
+        <v>230</v>
+      </c>
+      <c r="C336">
+        <v>87</v>
+      </c>
+      <c r="D336">
+        <v>5.0720000000000001</v>
+      </c>
+      <c r="E336">
+        <v>243</v>
+      </c>
+      <c r="F336">
+        <v>38</v>
+      </c>
+      <c r="G336">
+        <v>2.9769999999999999</v>
+      </c>
+      <c r="H336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>943793058</v>
+      </c>
+      <c r="B337">
+        <v>4902</v>
+      </c>
+      <c r="C337">
+        <v>152</v>
+      </c>
+      <c r="D337">
+        <v>4.2619999999999996</v>
+      </c>
+      <c r="E337">
+        <v>7126</v>
+      </c>
+      <c r="F337">
+        <v>158</v>
+      </c>
+      <c r="G337">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>943793057</v>
+      </c>
+      <c r="B338">
+        <v>220</v>
+      </c>
+      <c r="C338">
+        <v>19</v>
+      </c>
+      <c r="D338">
+        <v>4.6420000000000003</v>
+      </c>
+      <c r="E338">
+        <v>30</v>
+      </c>
+      <c r="F338">
+        <v>14</v>
+      </c>
+      <c r="G338">
+        <v>1.119</v>
+      </c>
+      <c r="H338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>943793056</v>
+      </c>
+      <c r="B339">
+        <v>4803</v>
+      </c>
+      <c r="C339">
+        <v>193</v>
+      </c>
+      <c r="D339">
+        <v>2.8719999999999999</v>
+      </c>
+      <c r="E339">
+        <v>3627</v>
+      </c>
+      <c r="F339">
+        <v>150</v>
+      </c>
+      <c r="G339">
+        <v>4.6710000000000003</v>
+      </c>
+      <c r="H339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>943793055</v>
+      </c>
+      <c r="B340">
+        <v>1058</v>
+      </c>
+      <c r="C340">
+        <v>13</v>
+      </c>
+      <c r="D340">
+        <v>3.4510000000000001</v>
+      </c>
+      <c r="E340">
+        <v>362</v>
+      </c>
+      <c r="F340">
+        <v>35</v>
+      </c>
+      <c r="G340">
+        <v>3.073</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>943793054</v>
+      </c>
+      <c r="B341">
+        <v>1587</v>
+      </c>
+      <c r="C341">
+        <v>152</v>
+      </c>
+      <c r="D341">
+        <v>3.968</v>
+      </c>
+      <c r="E341">
+        <v>3225</v>
+      </c>
+      <c r="F341">
+        <v>145</v>
+      </c>
+      <c r="G341">
+        <v>4.9249999999999998</v>
+      </c>
+      <c r="H341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>943793053</v>
+      </c>
+      <c r="B342">
+        <v>4194</v>
+      </c>
+      <c r="C342">
+        <v>515</v>
+      </c>
+      <c r="D342">
+        <v>7.266</v>
+      </c>
+      <c r="E342">
+        <v>2676</v>
+      </c>
+      <c r="F342">
+        <v>171</v>
+      </c>
+      <c r="G342">
+        <v>3.7690000000000001</v>
+      </c>
+      <c r="H342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>943793052</v>
+      </c>
+      <c r="B343">
+        <v>923</v>
+      </c>
+      <c r="C343">
+        <v>180</v>
+      </c>
+      <c r="D343">
+        <v>3.4159999999999999</v>
+      </c>
+      <c r="E343">
+        <v>5912</v>
+      </c>
+      <c r="F343">
+        <v>74</v>
+      </c>
+      <c r="G343">
+        <v>5.0890000000000004</v>
+      </c>
+      <c r="H343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>943793051</v>
+      </c>
+      <c r="B344">
+        <v>5189</v>
+      </c>
+      <c r="C344">
+        <v>92</v>
+      </c>
+      <c r="D344">
+        <v>2.2709999999999999</v>
+      </c>
+      <c r="E344">
+        <v>3009</v>
+      </c>
+      <c r="F344">
+        <v>73</v>
+      </c>
+      <c r="G344">
+        <v>2.8980000000000001</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>943793050</v>
+      </c>
+      <c r="B345">
+        <v>3731</v>
+      </c>
+      <c r="C345">
+        <v>187</v>
+      </c>
+      <c r="D345">
+        <v>3.37</v>
+      </c>
+      <c r="E345">
+        <v>6082</v>
+      </c>
+      <c r="F345">
+        <v>93</v>
+      </c>
+      <c r="G345">
+        <v>3.8460000000000001</v>
+      </c>
+      <c r="H345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>943793049</v>
+      </c>
+      <c r="B346">
+        <v>2573</v>
+      </c>
+      <c r="C346">
+        <v>167</v>
+      </c>
+      <c r="D346">
+        <v>4.4640000000000004</v>
+      </c>
+      <c r="E346">
+        <v>364</v>
+      </c>
+      <c r="F346">
+        <v>69</v>
+      </c>
+      <c r="G346">
+        <v>2.85</v>
+      </c>
+      <c r="H346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>943793048</v>
+      </c>
+      <c r="B347">
+        <v>5524</v>
+      </c>
+      <c r="C347">
+        <v>77</v>
+      </c>
+      <c r="D347">
+        <v>4.0439999999999996</v>
+      </c>
+      <c r="E347">
+        <v>6593</v>
+      </c>
+      <c r="F347">
+        <v>107</v>
+      </c>
+      <c r="G347">
+        <v>2.444</v>
+      </c>
+      <c r="H347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>943793047</v>
+      </c>
+      <c r="B348">
+        <v>109</v>
+      </c>
+      <c r="C348">
+        <v>77</v>
+      </c>
+      <c r="D348">
+        <v>4.4420000000000002</v>
+      </c>
+      <c r="E348">
+        <v>156</v>
+      </c>
+      <c r="F348">
+        <v>40</v>
+      </c>
+      <c r="G348">
+        <v>4.3289999999999997</v>
+      </c>
+      <c r="H348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>943793046</v>
+      </c>
+      <c r="B349">
+        <v>2686</v>
+      </c>
+      <c r="C349">
+        <v>212</v>
+      </c>
+      <c r="D349">
+        <v>3.649</v>
+      </c>
+      <c r="E349">
+        <v>568</v>
+      </c>
+      <c r="F349">
+        <v>48</v>
+      </c>
+      <c r="G349">
+        <v>2.91</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>943793045</v>
+      </c>
+      <c r="B350">
+        <v>1668</v>
+      </c>
+      <c r="C350">
+        <v>270</v>
+      </c>
+      <c r="D350">
+        <v>3.6829999999999998</v>
+      </c>
+      <c r="E350">
+        <v>960</v>
+      </c>
+      <c r="F350">
+        <v>82</v>
+      </c>
+      <c r="G350">
+        <v>3.9780000000000002</v>
+      </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>943793044</v>
+      </c>
+      <c r="B351">
+        <v>6402</v>
+      </c>
+      <c r="C351">
+        <v>216</v>
+      </c>
+      <c r="D351">
+        <v>3.617</v>
+      </c>
+      <c r="E351">
+        <v>3230</v>
+      </c>
+      <c r="F351">
+        <v>122</v>
+      </c>
+      <c r="G351">
+        <v>3.718</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>943793043</v>
+      </c>
+      <c r="B352">
+        <v>1611</v>
+      </c>
+      <c r="C352">
+        <v>51</v>
+      </c>
+      <c r="D352">
+        <v>2.9319999999999999</v>
+      </c>
+      <c r="E352">
+        <v>5403</v>
+      </c>
+      <c r="F352">
+        <v>61</v>
+      </c>
+      <c r="G352">
+        <v>5.2229999999999999</v>
+      </c>
+      <c r="H352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>943793042</v>
+      </c>
+      <c r="B353">
+        <v>16</v>
+      </c>
+      <c r="C353">
+        <v>3</v>
+      </c>
+      <c r="D353">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="E353">
+        <v>92</v>
+      </c>
+      <c r="F353">
+        <v>3</v>
+      </c>
+      <c r="G353">
+        <v>4.8570000000000002</v>
+      </c>
+      <c r="H353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>943793041</v>
+      </c>
+      <c r="B354">
+        <v>2262</v>
+      </c>
+      <c r="C354">
+        <v>371</v>
+      </c>
+      <c r="D354">
+        <v>2.3319999999999999</v>
+      </c>
+      <c r="E354">
+        <v>3342</v>
+      </c>
+      <c r="F354">
+        <v>1220</v>
+      </c>
+      <c r="G354">
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>943793032</v>
+      </c>
+      <c r="B355">
+        <v>1933</v>
+      </c>
+      <c r="C355">
+        <v>338</v>
+      </c>
+      <c r="D355">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="E355">
+        <v>3101</v>
+      </c>
+      <c r="F355">
+        <v>1582</v>
+      </c>
+      <c r="G355">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="H355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>943793031</v>
+      </c>
+      <c r="B356">
+        <v>1740</v>
+      </c>
+      <c r="C356">
+        <v>104</v>
+      </c>
+      <c r="D356">
+        <v>3.4910000000000001</v>
+      </c>
+      <c r="E356">
+        <v>1367</v>
+      </c>
+      <c r="F356">
+        <v>185</v>
+      </c>
+      <c r="G356">
+        <v>2.294</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>943793030</v>
+      </c>
+      <c r="B357">
+        <v>270</v>
+      </c>
+      <c r="C357">
+        <v>154</v>
+      </c>
+      <c r="D357">
+        <v>3.46</v>
+      </c>
+      <c r="E357">
+        <v>350</v>
+      </c>
+      <c r="F357">
+        <v>11</v>
+      </c>
+      <c r="G357">
+        <v>8.6769999999999996</v>
+      </c>
+      <c r="H357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>943793029</v>
+      </c>
+      <c r="B358">
+        <v>1906</v>
+      </c>
+      <c r="C358">
+        <v>73</v>
+      </c>
+      <c r="D358">
+        <v>6.3559999999999999</v>
+      </c>
+      <c r="E358">
+        <v>3411</v>
+      </c>
+      <c r="F358">
+        <v>102</v>
+      </c>
+      <c r="G358">
+        <v>3.778</v>
+      </c>
+      <c r="H358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>943793028</v>
+      </c>
+      <c r="B359">
+        <v>1160</v>
+      </c>
+      <c r="C359">
+        <v>91</v>
+      </c>
+      <c r="D359">
+        <v>3.9239999999999999</v>
+      </c>
+      <c r="E359">
+        <v>1223</v>
+      </c>
+      <c r="F359">
+        <v>9</v>
+      </c>
+      <c r="G359">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="H359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>943793027</v>
+      </c>
+      <c r="B360">
+        <v>2502</v>
+      </c>
+      <c r="C360">
+        <v>98</v>
+      </c>
+      <c r="D360">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E360">
+        <v>1878</v>
+      </c>
+      <c r="F360">
+        <v>113</v>
+      </c>
+      <c r="G360">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="H360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>943793026</v>
+      </c>
+      <c r="B361">
+        <v>835</v>
+      </c>
+      <c r="C361">
+        <v>22</v>
+      </c>
+      <c r="D361">
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="E361">
+        <v>2246</v>
+      </c>
+      <c r="F361">
+        <v>49</v>
+      </c>
+      <c r="G361">
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="H361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>943793025</v>
+      </c>
+      <c r="B362">
+        <v>849</v>
+      </c>
+      <c r="C362">
+        <v>51</v>
+      </c>
+      <c r="D362">
+        <v>2.903</v>
+      </c>
+      <c r="E362">
+        <v>1350</v>
+      </c>
+      <c r="F362">
+        <v>17</v>
+      </c>
+      <c r="G362">
+        <v>3.1640000000000001</v>
+      </c>
+      <c r="H362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>943793024</v>
+      </c>
+      <c r="B363">
+        <v>2824</v>
+      </c>
+      <c r="C363">
+        <v>168</v>
+      </c>
+      <c r="D363">
+        <v>5.3440000000000003</v>
+      </c>
+      <c r="E363">
+        <v>4459</v>
+      </c>
+      <c r="F363">
+        <v>191</v>
+      </c>
+      <c r="G363">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>943793023</v>
+      </c>
+      <c r="B364">
+        <v>720</v>
+      </c>
+      <c r="C364">
+        <v>73</v>
+      </c>
+      <c r="D364">
+        <v>6.6310000000000002</v>
+      </c>
+      <c r="E364">
+        <v>2046</v>
+      </c>
+      <c r="F364">
+        <v>213</v>
+      </c>
+      <c r="G364">
+        <v>3.6920000000000002</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>943793021</v>
+      </c>
+      <c r="B365">
+        <v>275</v>
+      </c>
+      <c r="C365">
+        <v>76</v>
+      </c>
+      <c r="D365">
+        <v>2.7429999999999999</v>
+      </c>
+      <c r="E365">
+        <v>43</v>
+      </c>
+      <c r="F365">
+        <v>35</v>
+      </c>
+      <c r="G365">
+        <v>3.31</v>
+      </c>
+      <c r="H365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>943793019</v>
+      </c>
+      <c r="B366">
+        <v>229</v>
+      </c>
+      <c r="C366">
+        <v>192</v>
+      </c>
+      <c r="D366">
+        <v>3.7749999999999999</v>
+      </c>
+      <c r="E366">
+        <v>136</v>
+      </c>
+      <c r="F366">
+        <v>9</v>
+      </c>
+      <c r="G366">
+        <v>2.0409999999999999</v>
+      </c>
+      <c r="H366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>943793018</v>
+      </c>
+      <c r="B367">
+        <v>153</v>
+      </c>
+      <c r="C367">
+        <v>22</v>
+      </c>
+      <c r="D367">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="E367">
+        <v>179</v>
+      </c>
+      <c r="F367">
+        <v>59</v>
+      </c>
+      <c r="G367">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>943793017</v>
+      </c>
+      <c r="B368">
+        <v>812</v>
+      </c>
+      <c r="C368">
+        <v>33</v>
+      </c>
+      <c r="D368">
+        <v>6.27</v>
+      </c>
+      <c r="E368">
+        <v>825</v>
+      </c>
+      <c r="F368">
+        <v>131</v>
+      </c>
+      <c r="G368">
+        <v>8.6010000000000009</v>
+      </c>
+      <c r="H368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>943793016</v>
+      </c>
+      <c r="B369">
+        <v>295</v>
+      </c>
+      <c r="C369">
+        <v>26</v>
+      </c>
+      <c r="D369">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="E369">
+        <v>296</v>
+      </c>
+      <c r="F369">
+        <v>107</v>
+      </c>
+      <c r="G369">
+        <v>2.613</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>943792620</v>
+      </c>
+      <c r="B370">
+        <v>2904</v>
+      </c>
+      <c r="C370">
+        <v>107</v>
+      </c>
+      <c r="D370">
+        <v>3.383</v>
+      </c>
+      <c r="E370">
+        <v>2661</v>
+      </c>
+      <c r="F370">
+        <v>73</v>
+      </c>
+      <c r="G370">
+        <v>3.5179999999999998</v>
+      </c>
+      <c r="H370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>943792619</v>
+      </c>
+      <c r="B371">
+        <v>2007</v>
+      </c>
+      <c r="C371">
+        <v>137</v>
+      </c>
+      <c r="D371">
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="E371">
+        <v>2009</v>
+      </c>
+      <c r="F371">
+        <v>27</v>
+      </c>
+      <c r="G371">
+        <v>8.0090000000000003</v>
+      </c>
+      <c r="H371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>943792617</v>
+      </c>
+      <c r="B372">
+        <v>1130</v>
+      </c>
+      <c r="C372">
+        <v>69</v>
+      </c>
+      <c r="D372">
+        <v>3.2730000000000001</v>
+      </c>
+      <c r="E372">
+        <v>695</v>
+      </c>
+      <c r="F372">
+        <v>118</v>
+      </c>
+      <c r="G372">
+        <v>4.22</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>943792616</v>
+      </c>
+      <c r="B373">
+        <v>118</v>
+      </c>
+      <c r="C373">
+        <v>14</v>
+      </c>
+      <c r="D373">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="E373">
+        <v>91</v>
+      </c>
+      <c r="F373">
+        <v>34</v>
+      </c>
+      <c r="G373">
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>943792615</v>
+      </c>
+      <c r="B374">
+        <v>2271</v>
+      </c>
+      <c r="C374">
+        <v>47</v>
+      </c>
+      <c r="D374">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="E374">
+        <v>2119</v>
+      </c>
+      <c r="F374">
+        <v>124</v>
+      </c>
+      <c r="G374">
+        <v>3.4990000000000001</v>
+      </c>
+      <c r="H374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>943792614</v>
+      </c>
+      <c r="B375">
+        <v>7850</v>
+      </c>
+      <c r="C375">
+        <v>390</v>
+      </c>
+      <c r="D375">
+        <v>4.1059999999999999</v>
+      </c>
+      <c r="E375">
+        <v>2853</v>
+      </c>
+      <c r="F375">
+        <v>319</v>
+      </c>
+      <c r="G375">
+        <v>4.2149999999999999</v>
+      </c>
+      <c r="H375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>943792613</v>
+      </c>
+      <c r="B376">
+        <v>6175</v>
+      </c>
+      <c r="C376">
+        <v>138</v>
+      </c>
+      <c r="D376">
+        <v>5.8639999999999999</v>
+      </c>
+      <c r="E376">
+        <v>7022</v>
+      </c>
+      <c r="F376">
+        <v>186</v>
+      </c>
+      <c r="G376">
+        <v>3.3519999999999999</v>
+      </c>
+      <c r="H376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>943792612</v>
+      </c>
+      <c r="B377">
+        <v>843</v>
+      </c>
+      <c r="C377">
+        <v>52</v>
+      </c>
+      <c r="D377">
+        <v>3.55</v>
+      </c>
+      <c r="E377">
+        <v>829</v>
+      </c>
+      <c r="F377">
+        <v>86</v>
+      </c>
+      <c r="G377">
+        <v>3.5640000000000001</v>
+      </c>
+      <c r="H377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>943792611</v>
+      </c>
+      <c r="B378">
+        <v>488</v>
+      </c>
+      <c r="C378">
+        <v>94</v>
+      </c>
+      <c r="D378">
+        <v>3.117</v>
+      </c>
+      <c r="E378">
+        <v>548</v>
+      </c>
+      <c r="F378">
+        <v>34</v>
+      </c>
+      <c r="G378">
+        <v>3.31</v>
+      </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>943792610</v>
+      </c>
+      <c r="B379">
+        <v>2077</v>
+      </c>
+      <c r="C379">
+        <v>125</v>
+      </c>
+      <c r="D379">
+        <v>3.754</v>
+      </c>
+      <c r="E379">
+        <v>1564</v>
+      </c>
+      <c r="F379">
+        <v>348</v>
+      </c>
+      <c r="G379">
+        <v>4.1470000000000002</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>943792609</v>
+      </c>
+      <c r="B380">
+        <v>4761</v>
+      </c>
+      <c r="C380">
+        <v>269</v>
+      </c>
+      <c r="D380">
+        <v>4.7990000000000004</v>
+      </c>
+      <c r="E380">
+        <v>5296</v>
+      </c>
+      <c r="F380">
+        <v>116</v>
+      </c>
+      <c r="G380">
+        <v>4.8710000000000004</v>
+      </c>
+      <c r="H380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>943792608</v>
+      </c>
+      <c r="B381">
+        <v>165</v>
+      </c>
+      <c r="C381">
+        <v>13</v>
+      </c>
+      <c r="D381">
+        <v>3.9529999999999998</v>
+      </c>
+      <c r="E381">
+        <v>110</v>
+      </c>
+      <c r="F381">
+        <v>23</v>
+      </c>
+      <c r="G381">
+        <v>5.3769999999999998</v>
+      </c>
+      <c r="H381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>943792607</v>
+      </c>
+      <c r="B382">
+        <v>67</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>1.159</v>
+      </c>
+      <c r="E382">
+        <v>82</v>
+      </c>
+      <c r="F382">
+        <v>5</v>
+      </c>
+      <c r="G382">
+        <v>4.4080000000000004</v>
+      </c>
+      <c r="H382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>943792606</v>
+      </c>
+      <c r="B383">
+        <v>4067</v>
+      </c>
+      <c r="C383">
+        <v>69</v>
+      </c>
+      <c r="D383">
+        <v>3.93</v>
+      </c>
+      <c r="E383">
+        <v>1924</v>
+      </c>
+      <c r="F383">
+        <v>225</v>
+      </c>
+      <c r="G383">
+        <v>3.63</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>943792605</v>
+      </c>
+      <c r="B384">
+        <v>187</v>
+      </c>
+      <c r="C384">
+        <v>99</v>
+      </c>
+      <c r="D384">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="E384">
+        <v>244</v>
+      </c>
+      <c r="F384">
+        <v>50</v>
+      </c>
+      <c r="G384">
+        <v>4.3129999999999997</v>
+      </c>
+      <c r="H384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>943792604</v>
+      </c>
+      <c r="B385">
+        <v>89</v>
+      </c>
+      <c r="C385">
+        <v>6</v>
+      </c>
+      <c r="D385">
+        <v>3.387</v>
+      </c>
+      <c r="E385">
+        <v>281</v>
+      </c>
+      <c r="F385">
+        <v>13</v>
+      </c>
+      <c r="G385">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="H385">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TrainingSet.xlsx
+++ b/TrainingSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Erik\Downloads\b;\DS\SmiteSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0F220-BD0B-45AB-A0C0-84FF62774C5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E0FCED-B59B-4D35-9CB6-7D4B1810A046}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA6FE912-4576-4140-B69C-9BECECFBBE00}"/>
+    <workbookView xWindow="7245" yWindow="2220" windowWidth="20040" windowHeight="10035" xr2:uid="{FA6FE912-4576-4140-B69C-9BECECFBBE00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FDA0AE-64AE-49AA-AB31-3659D432EFDE}">
   <dimension ref="A1:J385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
